--- a/data/trans_orig/P04DS2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P04DS2-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9556886D-0C3C-42C4-8493-0E3D30B96B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C724DD7-172A-4768-8D22-FC5ED6B51B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D4D7E063-6528-41DA-95CF-F941C5A0D8E0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{178864AB-E91D-46BE-9988-BC5585EAF728}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="82">
   <si>
     <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 2 en 2012 (Tasa respuesta: 0,38%)</t>
   </si>
@@ -90,9 +90,6 @@
     <t>76,68%</t>
   </si>
   <si>
-    <t>26,61%</t>
-  </si>
-  <si>
     <t>Calefacción individual</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>23,32%</t>
   </si>
   <si>
-    <t>73,39%</t>
-  </si>
-  <si>
     <t>25/34</t>
   </si>
   <si>
@@ -159,25 +153,25 @@
     <t>85,89%</t>
   </si>
   <si>
-    <t>35,02%</t>
+    <t>35,38%</t>
   </si>
   <si>
     <t>87,74%</t>
   </si>
   <si>
-    <t>44,08%</t>
+    <t>44,67%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>64,98%</t>
+    <t>64,62%</t>
   </si>
   <si>
     <t>12,26%</t>
   </si>
   <si>
-    <t>55,92%</t>
+    <t>55,33%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -204,55 +198,55 @@
     <t>68,34%</t>
   </si>
   <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
   </si>
   <si>
     <t>88,82%</t>
   </si>
   <si>
-    <t>66,69%</t>
+    <t>65,17%</t>
   </si>
   <si>
     <t>82,12%</t>
   </si>
   <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
   </si>
   <si>
     <t>31,66%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
   </si>
   <si>
     <t>11,18%</t>
   </si>
   <si>
-    <t>33,31%</t>
+    <t>34,83%</t>
   </si>
   <si>
     <t>17,88%</t>
   </si>
   <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 2 en 2015 (Tasa respuesta: 0,17%)</t>
+    <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 2 en 2016 (Tasa respuesta: 0,17%)</t>
   </si>
   <si>
     <t>51,45%</t>
@@ -270,25 +264,25 @@
     <t>71,93%</t>
   </si>
   <si>
-    <t>29,11%</t>
+    <t>28,21%</t>
   </si>
   <si>
     <t>82,27%</t>
   </si>
   <si>
-    <t>50,34%</t>
+    <t>53,91%</t>
   </si>
   <si>
     <t>28,07%</t>
   </si>
   <si>
-    <t>70,89%</t>
+    <t>71,79%</t>
   </si>
   <si>
     <t>17,73%</t>
   </si>
   <si>
-    <t>49,66%</t>
+    <t>46,09%</t>
   </si>
 </sst>
 </file>
@@ -700,7 +694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99A32E9-114E-42D9-8898-2A993FAA26D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B677D7-7508-4E43-A515-93D429051182}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -857,7 +851,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -866,7 +860,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -875,28 +869,28 @@
         <v>954</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -905,13 +899,13 @@
         <v>954</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -967,7 +961,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -982,7 +976,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -997,7 +991,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -1012,7 +1006,7 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>15</v>
@@ -1021,7 +1015,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1033,40 +1027,40 @@
         <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1122,7 +1116,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1134,7 +1128,7 @@
         <v>1030</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
@@ -1152,7 +1146,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -1164,10 +1158,10 @@
         <v>4087</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -1176,7 +1170,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -1185,7 +1179,7 @@
         <v>937</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
@@ -1203,10 +1197,10 @@
         <v>12</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -1215,13 +1209,13 @@
         <v>937</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1277,7 +1271,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1292,7 +1286,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -1304,10 +1298,10 @@
         <v>6368</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -1319,10 +1313,10 @@
         <v>7492</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -1331,7 +1325,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1343,10 +1337,10 @@
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1355,13 +1349,13 @@
         <v>1047</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1370,13 +1364,13 @@
         <v>1046</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1432,7 +1426,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1462,7 +1456,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -1474,7 +1468,7 @@
         <v>2228</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
@@ -1486,7 +1480,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -1495,28 +1489,28 @@
         <v>1030</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -1525,7 +1519,7 @@
         <v>1030</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>12</v>
@@ -1587,7 +1581,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1597,13 +1591,13 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1612,7 +1606,7 @@
         <v>1042</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
@@ -1627,7 +1621,7 @@
         <v>1042</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
@@ -1639,20 +1633,20 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -1661,7 +1655,7 @@
         <v>1076</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
@@ -1676,7 +1670,7 @@
         <v>1076</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
@@ -1695,13 +1689,13 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -1748,13 +1742,13 @@
         <v>6307</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -1763,10 +1757,10 @@
         <v>16862</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -1778,19 +1772,19 @@
         <v>23169</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="7">
         <v>3</v>
@@ -1799,13 +1793,13 @@
         <v>2922</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -1814,13 +1808,13 @@
         <v>2123</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -1829,13 +1823,13 @@
         <v>5045</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1891,7 +1885,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1913,7 +1907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A2AB59-19A0-477D-A2AF-77618A62F58B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD5944F-DE25-47BE-AFB6-605C84B1560A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1930,7 +1924,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2055,7 +2049,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -2070,7 +2064,7 @@
         <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>15</v>
@@ -2079,7 +2073,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2091,11 +2085,11 @@
         <v>12</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
@@ -2106,10 +2100,10 @@
         <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2121,10 +2115,10 @@
         <v>12</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2180,7 +2174,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2195,7 +2189,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -2210,7 +2204,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
@@ -2234,7 +2228,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2246,40 +2240,40 @@
         <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,7 +2329,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2345,13 +2339,13 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2360,7 +2354,7 @@
         <v>985</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
@@ -2375,7 +2369,7 @@
         <v>985</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
@@ -2387,20 +2381,20 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2409,7 +2403,7 @@
         <v>929</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
@@ -2424,7 +2418,7 @@
         <v>929</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>12</v>
@@ -2443,13 +2437,13 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -2484,7 +2478,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2499,7 +2493,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -2509,13 +2503,13 @@
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -2527,7 +2521,7 @@
         <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>15</v>
@@ -2536,7 +2530,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2548,23 +2542,23 @@
         <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2576,10 +2570,10 @@
         <v>12</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,13 +2601,13 @@
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -2633,7 +2627,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2643,13 +2637,13 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2658,7 +2652,7 @@
         <v>2210</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
@@ -2673,7 +2667,7 @@
         <v>2210</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
@@ -2685,20 +2679,20 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2707,7 +2701,7 @@
         <v>1053</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>12</v>
@@ -2722,7 +2716,7 @@
         <v>1053</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>12</v>
@@ -2741,13 +2735,13 @@
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -2782,7 +2776,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2792,84 +2786,84 @@
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,39 +2876,39 @@
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,7 +2928,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>15</v>
@@ -2946,10 +2940,10 @@
         <v>5077</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>13</v>
@@ -2961,10 +2955,10 @@
         <v>9196</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>13</v>
@@ -2973,7 +2967,7 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="7">
         <v>0</v>
@@ -2985,10 +2979,10 @@
         <v>12</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -2997,13 +2991,13 @@
         <v>1982</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -3012,13 +3006,13 @@
         <v>1982</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,7 +3068,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
